--- a/PythonResources/Data/Consumption/Sympheny/base_1800_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1800_coo.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>32.81516419891084</v>
+        <v>32.81516419891083</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>68.0941766198476</v>
+        <v>68.09417661984759</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.7324109020081815</v>
+        <v>0.7324109020081814</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.156162316808621</v>
+        <v>1.15616231680862</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>7.07303506126064</v>
+        <v>7.073035061260639</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>30.16228515694834</v>
+        <v>30.16228515694833</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>37.15378785525339</v>
+        <v>37.15378785525338</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>40.95228158734309</v>
+        <v>40.95228158734308</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.056801856429188</v>
+        <v>2.056801856429187</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>0.9286395466542718</v>
+        <v>0.9286395466542716</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>0.9658331921707832</v>
+        <v>0.965833192170783</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>3.044334028302457</v>
+        <v>3.044334028302456</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>22.06728207677172</v>
+        <v>22.06728207677171</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>0.5836890727290952</v>
+        <v>0.5836890727290951</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>7.441894270519809</v>
+        <v>7.441894270519808</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>6.106574697067122</v>
+        <v>6.106574697067121</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>7.711959232646239</v>
+        <v>7.711959232646238</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>0.5874638277070533</v>
+        <v>0.5874638277070532</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>8.900655365456656</v>
+        <v>8.900655365456654</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>46.19825317938117</v>
+        <v>46.19825317938116</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>39.33452945393246</v>
+        <v>39.33452945393245</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>55.76672952063543</v>
+        <v>55.76672952063542</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>51.96325358088849</v>
+        <v>51.96325358088848</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>7.469853247608102</v>
+        <v>7.469853247608101</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>5.075785239887438</v>
+        <v>5.075785239887437</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>5.604983614398229</v>
+        <v>5.604983614398228</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>2.625491553399595</v>
+        <v>2.625491553399594</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>0.9937306243409566</v>
+        <v>0.9937306243409564</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>34.48889290070578</v>
+        <v>34.48889290070577</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>1.398444144469955</v>
+        <v>1.398444144469954</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>0.7950079451558582</v>
+        <v>0.795007945155858</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>0.9651884358857282</v>
+        <v>0.965188435885728</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>0.7407898030035093</v>
+        <v>0.7407898030035092</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>0.9286717844685246</v>
+        <v>0.9286717844685244</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>0.7133905915990602</v>
+        <v>0.71339059159906</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>0.5260976829217542</v>
+        <v>0.5260976829217541</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>5.829563951324418</v>
+        <v>5.829563951324417</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>8.692926613253494</v>
+        <v>8.692926613253492</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>16.35679288845541</v>
+        <v>16.3567928884554</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>1.621934257132324</v>
+        <v>1.621934257132323</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>0.4903342240739102</v>
+        <v>0.4903342240739101</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>0.5682412982812557</v>
+        <v>0.5682412982812556</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>0.9438792406646618</v>
+        <v>0.9438792406646616</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>0.5218833213858041</v>
+        <v>0.521883321385804</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>0.5134839054177699</v>
+        <v>0.5134839054177698</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>0.5617966661410927</v>
+        <v>0.5617966661410926</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>14.06406884590384</v>
+        <v>14.06406884590383</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>0.3720947135259905</v>
+        <v>0.3720947135259904</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>0.5393005332134478</v>
+        <v>0.5393005332134477</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>0.7001467113619539</v>
+        <v>0.7001467113619538</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>0.4575893969242781</v>
+        <v>0.457589396924278</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>0.6765105320939164</v>
+        <v>0.6765105320939163</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>2.039507734437782</v>
+        <v>2.039507734437781</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>0.7874994651453545</v>
+        <v>0.7874994651453544</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>0.8519428558365977</v>
+        <v>0.8519428558365976</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>0.5985243287061325</v>
+        <v>0.5985243287061324</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>0.6976438846917861</v>
+        <v>0.697643884691786</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>0.5783551798254587</v>
+        <v>0.5783551798254586</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>4.172891983979565</v>
+        <v>4.172891983979564</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>628</v>
       </c>
       <c r="B628">
-        <v>0.6154462504784385</v>
+        <v>0.6154462504784384</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>14.25723196748553</v>
+        <v>14.25723196748552</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>0.4608219704807128</v>
+        <v>0.4608219704807127</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>23.89393524654016</v>
+        <v>23.89393524654015</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>0.5778833354532139</v>
+        <v>0.5778833354532138</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>674</v>
       </c>
       <c r="B674">
-        <v>0.6482907217812155</v>
+        <v>0.6482907217812154</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>0.4026004779402499</v>
+        <v>0.4026004779402498</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>0.6516727615673674</v>
+        <v>0.6516727615673673</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>0.7149409373935787</v>
+        <v>0.7149409373935786</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>0.7585997300229592</v>
+        <v>0.7585997300229591</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>0.5192398206170787</v>
+        <v>0.5192398206170786</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>0.6538356258326882</v>
+        <v>0.6538356258326881</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>0.8073227902004079</v>
+        <v>0.8073227902004078</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>10.53983099179343</v>
+        <v>10.53983099179342</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>0.8296929025814285</v>
+        <v>0.8296929025814284</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>2.340995773329481</v>
+        <v>2.34099577332948</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>0.8397452392075125</v>
+        <v>0.8397452392075124</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>0.2666662172910741</v>
+        <v>0.266666217291074</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>0.8619219247030165</v>
+        <v>0.8619219247030164</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>0.5374893541945207</v>
+        <v>0.5374893541945206</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>0.3719452472962732</v>
+        <v>0.3719452472962731</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>0.4369161658571068</v>
+        <v>0.4369161658571067</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>10.98729185362157</v>
+        <v>10.98729185362156</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>0.5967131496872053</v>
+        <v>0.5967131496872052</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>0.9519855855940346</v>
+        <v>0.9519855855940343</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>0.6195170072054447</v>
+        <v>0.6195170072054446</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>0.683139798988436</v>
+        <v>0.6831397989884359</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>0.4160846764290584</v>
+        <v>0.4160846764290583</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>1.448037625632228</v>
+        <v>1.448037625632227</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>864</v>
       </c>
       <c r="B864">
-        <v>0.8887232711885965</v>
+        <v>0.8887232711885964</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>0.4488295035786905</v>
+        <v>0.4488295035786904</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>8.895438700968484</v>
+        <v>8.895438700968482</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>15.10435380473615</v>
+        <v>15.10435380473614</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>19.46454748952418</v>
+        <v>19.46454748952417</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>0.6194173630522998</v>
+        <v>0.6194173630522997</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>0.8155698092283382</v>
+        <v>0.8155698092283381</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>0.3888935454620588</v>
+        <v>0.3888935454620587</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>943</v>
       </c>
       <c r="B943">
-        <v>1.518433289118683</v>
+        <v>1.518433289118682</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>1.08038000763157</v>
+        <v>1.080380007631569</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>7.292750418945051</v>
+        <v>7.29275041894505</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>6.230074832759013</v>
+        <v>6.230074832759012</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>2.229142280713992</v>
+        <v>2.229142280713991</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>2.249589847081394</v>
+        <v>2.249589847081393</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>20.88644024779743</v>
+        <v>20.88644024779742</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>1.56212138885193</v>
+        <v>1.562121388851929</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>0.9223648957165324</v>
+        <v>0.9223648957165322</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>1.300344475698843</v>
+        <v>1.300344475698842</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>7.561203490358843</v>
+        <v>7.561203490358842</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>0.8987609542627476</v>
+        <v>0.8987609542627475</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>5.750288235366524</v>
+        <v>5.750288235366523</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>1.639835036173759</v>
+        <v>1.639835036173758</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>7.840031276541247</v>
+        <v>7.840031276541246</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>6.801915043395029</v>
+        <v>6.801915043395028</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>1.035179661338831</v>
+        <v>1.03517966133883</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>0.7913269729102717</v>
+        <v>0.7913269729102715</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>0.5684230023252257</v>
+        <v>0.5684230023252256</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>2.572958569719549</v>
+        <v>2.572958569719548</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>0.5840085201612361</v>
+        <v>0.5840085201612359</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>0.5379787828290852</v>
+        <v>0.5379787828290851</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>0.5911975527395988</v>
+        <v>0.5911975527395987</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>0.6186700319037133</v>
+        <v>0.6186700319037132</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>1157</v>
       </c>
       <c r="B1157">
-        <v>0.570354340470004</v>
+        <v>0.5703543404700039</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>0.5867428729519464</v>
+        <v>0.5867428729519463</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>2.607669903538599</v>
+        <v>2.607669903538598</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>15.24309363443843</v>
+        <v>15.24309363443842</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>0.6748048586489075</v>
+        <v>0.6748048586489074</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>0.605253239753797</v>
+        <v>0.6052532397537969</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9807,7 +9807,7 @@
         <v>1183</v>
       </c>
       <c r="B1183">
-        <v>0.8087734918417816</v>
+        <v>0.8087734918417815</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>1.182676453676313</v>
+        <v>1.182676453676312</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>0.6605557447491928</v>
+        <v>0.6605557447491927</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>2.386553666289387</v>
+        <v>2.386553666289386</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>1.491526437059185</v>
+        <v>1.491526437059184</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>0.9754722986323549</v>
+        <v>0.9754722986323546</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>22.98195678843378</v>
+        <v>22.98195678843377</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>20.49020820352729</v>
+        <v>20.49020820352728</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>1.635746695184433</v>
+        <v>1.635746695184432</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>1.905823380152409</v>
+        <v>1.905823380152408</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>1.999014109025944</v>
+        <v>1.999014109025943</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>31.42600747565606</v>
+        <v>31.42600747565605</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>1320</v>
       </c>
       <c r="B1320">
-        <v>4.783681335653675</v>
+        <v>4.783681335653674</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>5.693754832008751</v>
+        <v>5.69375483200875</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>63.10405604456087</v>
+        <v>63.10405604456086</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>69.71691096091547</v>
+        <v>69.71691096091546</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>1352</v>
       </c>
       <c r="B1352">
-        <v>3.127273132243618</v>
+        <v>3.127273132243617</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>6.426022129207988</v>
+        <v>6.426022129207987</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>5.640093524829858</v>
+        <v>5.640093524829857</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>1363</v>
       </c>
       <c r="B1363">
-        <v>7.714538257786458</v>
+        <v>7.714538257786457</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>1.934711392433258</v>
+        <v>1.934711392433257</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>6.560688271472876</v>
+        <v>6.560688271472875</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>7.241375065867716</v>
+        <v>7.241375065867715</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>27.14980795054837</v>
+        <v>27.14980795054836</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>19.23557108701807</v>
+        <v>19.23557108701806</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>2.749284760130148</v>
+        <v>2.749284760130147</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>7.792641689589707</v>
+        <v>7.792641689589706</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>0.9725210732730351</v>
+        <v>0.9725210732730348</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>2.538959398524447</v>
+        <v>2.538959398524446</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>2.153096207602146</v>
+        <v>2.153096207602145</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>22.24957226281908</v>
+        <v>22.24957226281907</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>0.893292248681327</v>
+        <v>0.8932922486813268</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>7.782266974821096</v>
+        <v>7.782266974821095</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>65.77276092261108</v>
+        <v>65.77276092261107</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>1.752787545184228</v>
+        <v>1.752787545184227</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13127,7 +13127,7 @@
         <v>1598</v>
       </c>
       <c r="B1598">
-        <v>0.5095889913139606</v>
+        <v>0.5095889913139605</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>8.349564584357863</v>
+        <v>8.349564584357861</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>11.65912790264884</v>
+        <v>11.65912790264883</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>2.238253859305973</v>
+        <v>2.238253859305972</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>0.8822610547861139</v>
+        <v>0.8822610547861138</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13687,7 +13687,7 @@
         <v>1668</v>
       </c>
       <c r="B1668">
-        <v>9.212717407423256</v>
+        <v>9.212717407423254</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>0.7679897261016687</v>
+        <v>0.7679897261016686</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>0.9662229766522028</v>
+        <v>0.9662229766522026</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>34.02261687819558</v>
+        <v>34.02261687819557</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>19.27408062149817</v>
+        <v>19.27408062149816</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>21.43673973709184</v>
+        <v>21.43673973709183</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>29.44895024884662</v>
+        <v>29.44895024884661</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>13.46450411501046</v>
+        <v>13.46450411501045</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>1.08628245835021</v>
+        <v>1.086282458350209</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>5.300160427086564</v>
+        <v>5.300160427086563</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>18.9107604548697</v>
+        <v>18.91076045486969</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>1.46298131789357</v>
+        <v>1.462981317893569</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>3.734311174622862</v>
+        <v>3.734311174622861</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>1.695014451332917</v>
+        <v>1.695014451332916</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>1.130498085953047</v>
+        <v>1.130498085953046</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>1.773545766852611</v>
+        <v>1.77354576685261</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>43.07440897828989</v>
+        <v>43.07440897828988</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>47.01562830620766</v>
+        <v>47.01562830620765</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>32.81750876722013</v>
+        <v>32.81750876722012</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>28.15468992791039</v>
+        <v>28.15468992791038</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>19.61550838153864</v>
+        <v>19.61550838153863</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15983,7 +15983,7 @@
         <v>1955</v>
       </c>
       <c r="B1955">
-        <v>0.8329313375586362</v>
+        <v>0.8329313375586361</v>
       </c>
     </row>
     <row r="1956" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>3.954993666734855</v>
+        <v>3.954993666734854</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>1.6390378829486</v>
+        <v>1.639037882948599</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>0.783636788855798</v>
+        <v>0.7836367888557979</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>2.685820226708033</v>
+        <v>2.685820226708032</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>0.7689773755019575</v>
+        <v>0.7689773755019574</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16631,7 +16631,7 @@
         <v>2036</v>
       </c>
       <c r="B2036">
-        <v>9.471821512703752</v>
+        <v>9.47182151270375</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>7.052666624073677</v>
+        <v>7.052666624073676</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>0.6274738859051002</v>
+        <v>0.6274738859051001</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>0.7557745252102639</v>
+        <v>0.7557745252102638</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>22.76892345043085</v>
+        <v>22.76892345043084</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17055,7 +17055,7 @@
         <v>2089</v>
       </c>
       <c r="B2089">
-        <v>1.931818781281671</v>
+        <v>1.93181878128167</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>1.258250682415914</v>
+        <v>1.258250682415913</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>1.629334300858523</v>
+        <v>1.629334300858522</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>27.64544969113244</v>
+        <v>27.64544969113243</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>30.44773634860449</v>
+        <v>30.44773634860448</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>53.06930368079641</v>
+        <v>53.0693036807964</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>61.85088428324496</v>
+        <v>61.85088428324495</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>58.31234456244788</v>
+        <v>58.31234456244787</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>78.60810013182336</v>
+        <v>78.60810013182335</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>2.501200125903319</v>
+        <v>2.501200125903318</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>2.26594907245947</v>
+        <v>2.265949072459469</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>58.08257686813738</v>
+        <v>58.08257686813737</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>9.635032774134254</v>
+        <v>9.635032774134253</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18479,7 +18479,7 @@
         <v>2267</v>
       </c>
       <c r="B2267">
-        <v>20.63278726383604</v>
+        <v>20.63278726383603</v>
       </c>
     </row>
     <row r="2268" spans="1:2">
@@ -18535,7 +18535,7 @@
         <v>2274</v>
       </c>
       <c r="B2274">
-        <v>41.46427669188446</v>
+        <v>41.46427669188445</v>
       </c>
     </row>
     <row r="2275" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>2.002674566298824</v>
+        <v>2.002674566298823</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>2.320882307946153</v>
+        <v>2.320882307946152</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>5.168747373350817</v>
+        <v>5.168747373350816</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>6.494454216735412</v>
+        <v>6.494454216735411</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>63.02785757450892</v>
+        <v>63.02785757450891</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>34.52200992807451</v>
+        <v>34.5220099280745</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>36.93720835768266</v>
+        <v>36.93720835768265</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>67.03912088066676</v>
+        <v>67.03912088066674</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>62.16183265526465</v>
+        <v>62.16183265526464</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>2.184217421197594</v>
+        <v>2.184217421197593</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>11.11172981663718</v>
+        <v>11.11172981663717</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>9.541308655970356</v>
+        <v>9.541308655970354</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>7.660554572465039</v>
+        <v>7.660554572465038</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>37.49257797594591</v>
+        <v>37.4925779759459</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>48.19553230785824</v>
+        <v>48.19553230785823</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>2.210151277408737</v>
+        <v>2.210151277408736</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>54.33771513612271</v>
+        <v>54.3377151361227</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>55.77493550971795</v>
+        <v>55.77493550971794</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>1.370476375250503</v>
+        <v>1.370476375250502</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>28.19964702524104</v>
+        <v>28.19964702524103</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>29.4999446095737</v>
+        <v>29.49994460957369</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>1.396838115178091</v>
+        <v>1.39683811517809</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>37.50547310164701</v>
+        <v>37.505473101647</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>63.34642579353381</v>
+        <v>63.3464257935338</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>51.04388973260785</v>
+        <v>51.04388973260784</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>40.5624971059235</v>
+        <v>40.56249710592349</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>9.682217211358733</v>
+        <v>9.682217211358729</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>5.816815361142649</v>
+        <v>5.816815361142648</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>5.279909218315065</v>
+        <v>5.279909218315064</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>1.721748391479605</v>
+        <v>1.721748391479604</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>1.220236437991151</v>
+        <v>1.22023643799115</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>2.086944212755507</v>
+        <v>2.086944212755506</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>8.251649550341106</v>
+        <v>8.251649550341105</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>8.529158516849535</v>
+        <v>8.529158516849533</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>1.420333620347571</v>
+        <v>1.42033362034757</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>40.91681999166507</v>
+        <v>40.91681999166506</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>47.82596972810628</v>
+        <v>47.82596972810627</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21239,7 +21239,7 @@
         <v>2612</v>
       </c>
       <c r="B2612">
-        <v>43.19925724075962</v>
+        <v>43.19925724075961</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>35.52343366718033</v>
+        <v>35.52343366718032</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>60.63581175695502</v>
+        <v>60.63581175695501</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21431,7 +21431,7 @@
         <v>2636</v>
       </c>
       <c r="B2636">
-        <v>49.31125375204198</v>
+        <v>49.31125375204197</v>
       </c>
     </row>
     <row r="2637" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>3.516149093443357</v>
+        <v>3.516149093443356</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>6.910966776880916</v>
+        <v>6.910966776880915</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>7.327596565441884</v>
+        <v>7.327596565441883</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>2.532505974253124</v>
+        <v>2.532505974253123</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21751,7 +21751,7 @@
         <v>2676</v>
       </c>
       <c r="B2676">
-        <v>40.34327996900481</v>
+        <v>40.3432799690048</v>
       </c>
     </row>
     <row r="2677" spans="1:2">
@@ -21847,7 +21847,7 @@
         <v>2688</v>
       </c>
       <c r="B2688">
-        <v>2.505112624269448</v>
+        <v>2.505112624269447</v>
       </c>
     </row>
     <row r="2689" spans="1:2">
@@ -22047,7 +22047,7 @@
         <v>2713</v>
       </c>
       <c r="B2713">
-        <v>1.891313433028286</v>
+        <v>1.891313433028285</v>
       </c>
     </row>
     <row r="2714" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>9.416343165085159</v>
+        <v>9.416343165085156</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>23.53040993018462</v>
+        <v>23.53040993018461</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22383,7 +22383,7 @@
         <v>2755</v>
       </c>
       <c r="B2755">
-        <v>56.19256173981037</v>
+        <v>56.19256173981036</v>
       </c>
     </row>
     <row r="2756" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>1.843305466185171</v>
+        <v>1.84330546618517</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22495,7 +22495,7 @@
         <v>2769</v>
       </c>
       <c r="B2769">
-        <v>48.27173077791019</v>
+        <v>48.27173077791018</v>
       </c>
     </row>
     <row r="2770" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>59.30292467312322</v>
+        <v>59.30292467312321</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>79.39030673401049</v>
+        <v>79.39030673401048</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>1.915078563553335</v>
+        <v>1.915078563553334</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>39.0901082076889</v>
+        <v>39.09010820768889</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>1.668500314465225</v>
+        <v>1.668500314465224</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>57.97589901006465</v>
+        <v>57.97589901006464</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>68.59034588830126</v>
+        <v>68.59034588830124</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>54.89044711503801</v>
+        <v>54.890447115038</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>50.90585327339836</v>
+        <v>50.90585327339835</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>54.06017686251042</v>
+        <v>54.06017686251041</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>70.43024586901718</v>
+        <v>70.43024586901717</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>82.99478743850638</v>
+        <v>82.99478743850636</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>99.07881911127969</v>
+        <v>99.07881911127966</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>25.93118926469063</v>
+        <v>25.93118926469062</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>61.67269709173886</v>
+        <v>61.67269709173885</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>87.34161708393145</v>
+        <v>87.34161708393144</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>54.27910092839044</v>
+        <v>54.27910092839043</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>65.05415073581347</v>
+        <v>65.05415073581345</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>54.11087815219883</v>
+        <v>54.11087815219882</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -23991,7 +23991,7 @@
         <v>2956</v>
       </c>
       <c r="B2956">
-        <v>1.756198892074246</v>
+        <v>1.756198892074245</v>
       </c>
     </row>
     <row r="2957" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>33.14633447259816</v>
+        <v>33.14633447259815</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24183,7 +24183,7 @@
         <v>2980</v>
       </c>
       <c r="B2980">
-        <v>1.994644419839503</v>
+        <v>1.994644419839502</v>
       </c>
     </row>
     <row r="2981" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>63.0841272139319</v>
+        <v>63.08412721393189</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>79.7572316744145</v>
+        <v>79.75723167441448</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>19.13243938851314</v>
+        <v>19.13243938851313</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24367,7 +24367,7 @@
         <v>3003</v>
       </c>
       <c r="B3003">
-        <v>4.020055437317674</v>
+        <v>4.020055437317673</v>
       </c>
     </row>
     <row r="3004" spans="1:2">
@@ -24375,7 +24375,7 @@
         <v>3004</v>
       </c>
       <c r="B3004">
-        <v>3.076366692828142</v>
+        <v>3.076366692828141</v>
       </c>
     </row>
     <row r="3005" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>33.80633045166351</v>
+        <v>33.8063304516635</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>79.26311390323147</v>
+        <v>79.26311390323146</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>65.06997657190118</v>
+        <v>65.06997657190117</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>65.20244468137611</v>
+        <v>65.20244468137609</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>62.55894391265077</v>
+        <v>62.55894391265076</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24679,7 +24679,7 @@
         <v>3042</v>
       </c>
       <c r="B3042">
-        <v>92.32235938598102</v>
+        <v>92.322359385981</v>
       </c>
     </row>
     <row r="3043" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>98.24298050901751</v>
+        <v>98.2429805090175</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>95.37645267987089</v>
+        <v>95.37645267987088</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>81.08982568720764</v>
+        <v>81.08982568720762</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>73.10012303122204</v>
+        <v>73.10012303122203</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>16.92200969361768</v>
+        <v>16.92200969361767</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>32.00482277701222</v>
+        <v>32.00482277701221</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>96.7494904959993</v>
+        <v>96.74949049599928</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>3.898753334415743</v>
+        <v>3.898753334415742</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>3.531623244284676</v>
+        <v>3.531623244284675</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>5.050170831108437</v>
+        <v>5.050170831108436</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>27.51145761225647</v>
+        <v>27.51145761225646</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>65.73436861654645</v>
+        <v>65.73436861654643</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>6.944464796599908</v>
+        <v>6.944464796599907</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>50.65615674845889</v>
+        <v>50.65615674845888</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>5.579750197969488</v>
+        <v>5.579750197969487</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>55.11757717000055</v>
+        <v>55.11757717000054</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>43.41612980936902</v>
+        <v>43.41612980936901</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>34.24681622277151</v>
+        <v>34.2468162227715</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>42.84786506540467</v>
+        <v>42.84786506540466</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>2.2492821224908</v>
+        <v>2.249282122490799</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>74.25658134977971</v>
+        <v>74.25658134977969</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26479,7 +26479,7 @@
         <v>3267</v>
       </c>
       <c r="B3267">
-        <v>32.65719890907237</v>
+        <v>32.65719890907236</v>
       </c>
     </row>
     <row r="3268" spans="1:2">
@@ -26503,7 +26503,7 @@
         <v>3270</v>
       </c>
       <c r="B3270">
-        <v>38.39201299359758</v>
+        <v>38.39201299359757</v>
       </c>
     </row>
     <row r="3271" spans="1:2">
@@ -26511,7 +26511,7 @@
         <v>3271</v>
       </c>
       <c r="B3271">
-        <v>70.18260084134835</v>
+        <v>70.18260084134833</v>
       </c>
     </row>
     <row r="3272" spans="1:2">
@@ -26599,7 +26599,7 @@
         <v>3282</v>
       </c>
       <c r="B3282">
-        <v>108.4635399112933</v>
+        <v>108.4635399112932</v>
       </c>
     </row>
     <row r="3283" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>42.22626139240396</v>
+        <v>42.22626139240395</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>24.96982833656982</v>
+        <v>24.96982833656981</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>77.1430380095553</v>
+        <v>77.14303800955528</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>36.62625998566297</v>
+        <v>36.62625998566296</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>51.91489685950937</v>
+        <v>51.91489685950936</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>15.2155156497004</v>
+        <v>15.21551564970039</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>1.681339756668979</v>
+        <v>1.681339756668978</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>34.93729158985764</v>
+        <v>34.93729158985763</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>36.78686291484939</v>
+        <v>36.78686291484938</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>41.5738852603438</v>
+        <v>41.57388526034379</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>32.86615855963791</v>
+        <v>32.8661585596379</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>1.687834210885714</v>
+        <v>1.687834210885713</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>49.05921265879322</v>
+        <v>49.05921265879321</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>62.35789718012909</v>
+        <v>62.35789718012908</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27575,7 +27575,7 @@
         <v>3404</v>
       </c>
       <c r="B3404">
-        <v>66.10920647499431</v>
+        <v>66.10920647499429</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -27679,7 +27679,7 @@
         <v>3417</v>
       </c>
       <c r="B3417">
-        <v>60.24309656514882</v>
+        <v>60.24309656514881</v>
       </c>
     </row>
     <row r="3418" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>62.06482614146774</v>
+        <v>62.06482614146773</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>84.51084392150152</v>
+        <v>84.5108439215015</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>38.7155634202797</v>
+        <v>38.71556342027969</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>44.21328303452788</v>
+        <v>44.21328303452787</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>87.45357022070009</v>
+        <v>87.45357022070007</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>86.87006578272535</v>
+        <v>86.87006578272533</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>108.8814592124244</v>
+        <v>108.8814592124243</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>40.07863682109362</v>
+        <v>40.07863682109361</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>100.0743814296123</v>
+        <v>100.0743814296122</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28079,7 +28079,7 @@
         <v>3467</v>
       </c>
       <c r="B3467">
-        <v>97.70578129515128</v>
+        <v>97.70578129515124</v>
       </c>
     </row>
     <row r="3468" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>140.0067758024139</v>
+        <v>140.0067758024138</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28183,7 +28183,7 @@
         <v>3480</v>
       </c>
       <c r="B3480">
-        <v>41.09002497551392</v>
+        <v>41.09002497551391</v>
       </c>
     </row>
     <row r="3481" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>25.4888278389352</v>
+        <v>25.48882783893519</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>66.41986177597533</v>
+        <v>66.41986177597532</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>51.82814783206561</v>
+        <v>51.8281478320656</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>152.0898016553825</v>
+        <v>152.0898016553824</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28583,7 +28583,7 @@
         <v>3530</v>
       </c>
       <c r="B3530">
-        <v>42.09350021189037</v>
+        <v>42.09350021189036</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>89.53789144765958</v>
+        <v>89.53789144765956</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28767,7 +28767,7 @@
         <v>3553</v>
       </c>
       <c r="B3553">
-        <v>47.16362918073164</v>
+        <v>47.16362918073163</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>91.06596384323984</v>
+        <v>91.0659638432398</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29551,7 +29551,7 @@
         <v>3651</v>
       </c>
       <c r="B3651">
-        <v>36.00465631266226</v>
+        <v>36.00465631266225</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>25.66437739109334</v>
+        <v>25.66437739109333</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>54.88312033907148</v>
+        <v>54.88312033907147</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29623,7 +29623,7 @@
         <v>3660</v>
       </c>
       <c r="B3660">
-        <v>73.71615835448819</v>
+        <v>73.71615835448817</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>89.13462569846156</v>
+        <v>89.13462569846155</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>90.2101964103487</v>
+        <v>90.21019641034869</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>6.034537835764163</v>
+        <v>6.034537835764162</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>86.89585603412755</v>
+        <v>86.89585603412753</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>86.36070831753193</v>
+        <v>86.36070831753192</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>7.127956573905776</v>
+        <v>7.127956573905775</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>125.1542286340956</v>
+        <v>125.1542286340955</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30103,7 +30103,7 @@
         <v>3720</v>
       </c>
       <c r="B3720">
-        <v>52.16986866314474</v>
+        <v>52.16986866314473</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>45.70618690546877</v>
+        <v>45.70618690546876</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30279,7 +30279,7 @@
         <v>3742</v>
       </c>
       <c r="B3742">
-        <v>87.43100375072316</v>
+        <v>87.43100375072315</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>39.56664171655225</v>
+        <v>39.56664171655224</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30351,7 +30351,7 @@
         <v>3751</v>
       </c>
       <c r="B3751">
-        <v>88.59537498732469</v>
+        <v>88.59537498732467</v>
       </c>
     </row>
     <row r="3752" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>96.75007663807662</v>
+        <v>96.75007663807661</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>64.92695790503444</v>
+        <v>64.92695790503443</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>63.01027331218924</v>
+        <v>63.01027331218923</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>80.57783058266627</v>
+        <v>80.57783058266625</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>54.50857555166228</v>
+        <v>54.50857555166227</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>35.9436975366207</v>
+        <v>35.94369753662069</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>99.58553893712514</v>
+        <v>99.58553893712512</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31023,7 +31023,7 @@
         <v>3835</v>
       </c>
       <c r="B3835">
-        <v>113.5700096889286</v>
+        <v>113.5700096889285</v>
       </c>
     </row>
     <row r="3836" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>60.26331846681645</v>
+        <v>60.26331846681644</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31103,7 +31103,7 @@
         <v>3845</v>
       </c>
       <c r="B3845">
-        <v>7.852398874372756</v>
+        <v>7.852398874372755</v>
       </c>
     </row>
     <row r="3846" spans="1:2">
@@ -31175,7 +31175,7 @@
         <v>3854</v>
       </c>
       <c r="B3854">
-        <v>91.87659833617712</v>
+        <v>91.8765983361771</v>
       </c>
     </row>
     <row r="3855" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>86.38855006620476</v>
+        <v>86.38855006620474</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>35.11811642071169</v>
+        <v>35.11811642071168</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>54.53377966098715</v>
+        <v>54.53377966098714</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31455,7 +31455,7 @@
         <v>3889</v>
       </c>
       <c r="B3889">
-        <v>47.21726118080667</v>
+        <v>47.21726118080666</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>46.48311822896</v>
+        <v>46.48311822895999</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>91.83820603011247</v>
+        <v>91.83820603011246</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>44.67692141769013</v>
+        <v>44.67692141769012</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>64.04598636281844</v>
+        <v>64.04598636281843</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>78.49614699505473</v>
+        <v>78.49614699505472</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31839,7 +31839,7 @@
         <v>3937</v>
       </c>
       <c r="B3937">
-        <v>88.02388646193506</v>
+        <v>88.02388646193505</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31863,7 +31863,7 @@
         <v>3940</v>
       </c>
       <c r="B3940">
-        <v>66.23171016915475</v>
+        <v>66.23171016915474</v>
       </c>
     </row>
     <row r="3941" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>190.1506443752928</v>
+        <v>190.1506443752927</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>88.83979623356825</v>
+        <v>88.83979623356824</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>106.994374794484</v>
+        <v>106.9943747944839</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>71.74965168507056</v>
+        <v>71.74965168507055</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>86.93424834019218</v>
+        <v>86.93424834019217</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32591,7 +32591,7 @@
         <v>4031</v>
       </c>
       <c r="B4031">
-        <v>88.14375251674755</v>
+        <v>88.14375251674754</v>
       </c>
     </row>
     <row r="4032" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>91.3619655922878</v>
+        <v>91.36196559228776</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -32815,7 +32815,7 @@
         <v>4059</v>
       </c>
       <c r="B4059">
-        <v>70.73357439403168</v>
+        <v>70.73357439403166</v>
       </c>
     </row>
     <row r="4060" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>151.2445847798832</v>
+        <v>151.2445847798831</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -32935,7 +32935,7 @@
         <v>4074</v>
       </c>
       <c r="B4074">
-        <v>180.295251487189</v>
+        <v>180.2952514871889</v>
       </c>
     </row>
     <row r="4075" spans="1:2">
@@ -32943,7 +32943,7 @@
         <v>4075</v>
       </c>
       <c r="B4075">
-        <v>172.9116197391551</v>
+        <v>172.911619739155</v>
       </c>
     </row>
     <row r="4076" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>149.4172868538297</v>
+        <v>149.4172868538296</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -33199,7 +33199,7 @@
         <v>4107</v>
       </c>
       <c r="B4107">
-        <v>59.31113066220574</v>
+        <v>59.31113066220573</v>
       </c>
     </row>
     <row r="4108" spans="1:2">
@@ -33207,7 +33207,7 @@
         <v>4108</v>
       </c>
       <c r="B4108">
-        <v>55.8382388540688</v>
+        <v>55.83823885406879</v>
       </c>
     </row>
     <row r="4109" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>174.2952081126753</v>
+        <v>174.2952081126752</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33391,7 +33391,7 @@
         <v>4131</v>
       </c>
       <c r="B4131">
-        <v>63.36430312689215</v>
+        <v>63.36430312689214</v>
       </c>
     </row>
     <row r="4132" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>82.94437921985663</v>
+        <v>82.94437921985661</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -33575,7 +33575,7 @@
         <v>4154</v>
       </c>
       <c r="B4154">
-        <v>70.32825714756304</v>
+        <v>70.32825714756302</v>
       </c>
     </row>
     <row r="4155" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>82.72779972228589</v>
+        <v>82.72779972228588</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>99.57029924311476</v>
+        <v>99.57029924311472</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>150.2027172374421</v>
+        <v>150.202717237442</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>33.56923598138648</v>
+        <v>33.56923598138647</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>134.0961190946919</v>
+        <v>134.0961190946918</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34279,7 +34279,7 @@
         <v>4242</v>
       </c>
       <c r="B4242">
-        <v>171.6774975953522</v>
+        <v>171.6774975953521</v>
       </c>
     </row>
     <row r="4243" spans="1:2">
@@ -34335,7 +34335,7 @@
         <v>4249</v>
       </c>
       <c r="B4249">
-        <v>77.66499752941115</v>
+        <v>77.66499752941114</v>
       </c>
     </row>
     <row r="4250" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>54.67943596720184</v>
+        <v>54.67943596720183</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34383,7 +34383,7 @@
         <v>4255</v>
       </c>
       <c r="B4255">
-        <v>86.89058075543164</v>
+        <v>86.89058075543163</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>99.50611668564792</v>
+        <v>99.5061166856479</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>82.66684094624433</v>
+        <v>82.66684094624432</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34527,7 +34527,7 @@
         <v>4273</v>
       </c>
       <c r="B4273">
-        <v>58.38326775380392</v>
+        <v>58.38326775380391</v>
       </c>
     </row>
     <row r="4274" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>91.25939072875632</v>
+        <v>91.2593907287563</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>115.1007197238568</v>
+        <v>115.1007197238567</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>164.6892186784724</v>
+        <v>164.6892186784723</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>95.91687567516242</v>
+        <v>95.9168756751624</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>70.24414575946723</v>
+        <v>70.24414575946722</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>101.3738584150367</v>
+        <v>101.3738584150366</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>66.99809093525417</v>
+        <v>66.99809093525415</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>83.96573178959142</v>
+        <v>83.9657317895914</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>123.6044689816544</v>
+        <v>123.6044689816543</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35295,7 +35295,7 @@
         <v>4369</v>
       </c>
       <c r="B4369">
-        <v>85.51226766060734</v>
+        <v>85.51226766060732</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>71.23501894118124</v>
+        <v>71.23501894118122</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>83.97833384425385</v>
+        <v>83.97833384425384</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>161.0788765532033</v>
+        <v>161.0788765532032</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>179.214405496606</v>
+        <v>179.2144054966059</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>89.68823689049285</v>
+        <v>89.68823689049283</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>64.22622505159516</v>
+        <v>64.22622505159515</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35727,7 +35727,7 @@
         <v>4423</v>
       </c>
       <c r="B4423">
-        <v>76.50121243488695</v>
+        <v>76.50121243488694</v>
       </c>
     </row>
     <row r="4424" spans="1:2">
@@ -35751,7 +35751,7 @@
         <v>4426</v>
       </c>
       <c r="B4426">
-        <v>87.11507317104623</v>
+        <v>87.11507317104622</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
@@ -35759,7 +35759,7 @@
         <v>4427</v>
       </c>
       <c r="B4427">
-        <v>87.5482321661877</v>
+        <v>87.54823216618769</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35887,7 +35887,7 @@
         <v>4443</v>
       </c>
       <c r="B4443">
-        <v>44.74813768008483</v>
+        <v>44.74813768008482</v>
       </c>
     </row>
     <row r="4444" spans="1:2">
@@ -35903,7 +35903,7 @@
         <v>4445</v>
       </c>
       <c r="B4445">
-        <v>47.88692850414784</v>
+        <v>47.88692850414783</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>144.4602833059117</v>
+        <v>144.4602833059116</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36231,7 +36231,7 @@
         <v>4486</v>
       </c>
       <c r="B4486">
-        <v>151.4180828347707</v>
+        <v>151.4180828347706</v>
       </c>
     </row>
     <row r="4487" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>195.8813554652767</v>
+        <v>195.8813554652766</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>215.1261582900126</v>
+        <v>215.1261582900125</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36831,7 +36831,7 @@
         <v>4561</v>
       </c>
       <c r="B4561">
-        <v>75.76267341746036</v>
+        <v>75.76267341746035</v>
       </c>
     </row>
     <row r="4562" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>57.61131863796994</v>
+        <v>57.61131863796993</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>159.5701468461747</v>
+        <v>159.5701468461746</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>193.0649427837412</v>
+        <v>193.0649427837411</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37223,7 +37223,7 @@
         <v>4610</v>
       </c>
       <c r="B4610">
-        <v>70.69254444861909</v>
+        <v>70.69254444861907</v>
       </c>
     </row>
     <row r="4611" spans="1:2">
@@ -37407,7 +37407,7 @@
         <v>4633</v>
       </c>
       <c r="B4633">
-        <v>87.92775916125414</v>
+        <v>87.92775916125413</v>
       </c>
     </row>
     <row r="4634" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>75.4924619198146</v>
+        <v>75.49246191981459</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>75.97133999698724</v>
+        <v>75.97133999698723</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>92.72240135375375</v>
+        <v>92.72240135375374</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>96.52617036453935</v>
+        <v>96.52617036453934</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>167.8221480817622</v>
+        <v>167.8221480817621</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37599,7 +37599,7 @@
         <v>4657</v>
       </c>
       <c r="B4657">
-        <v>86.33491806612973</v>
+        <v>86.33491806612972</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37607,7 +37607,7 @@
         <v>4658</v>
       </c>
       <c r="B4658">
-        <v>73.09748539187409</v>
+        <v>73.09748539187407</v>
       </c>
     </row>
     <row r="4659" spans="1:2">
@@ -37799,7 +37799,7 @@
         <v>4682</v>
       </c>
       <c r="B4682">
-        <v>55.58356012147209</v>
+        <v>55.58356012147208</v>
       </c>
     </row>
     <row r="4683" spans="1:2">
@@ -37823,7 +37823,7 @@
         <v>4685</v>
       </c>
       <c r="B4685">
-        <v>38.9983769725879</v>
+        <v>38.99837697258789</v>
       </c>
     </row>
     <row r="4686" spans="1:2">
@@ -37959,7 +37959,7 @@
         <v>4702</v>
       </c>
       <c r="B4702">
-        <v>93.01517932137644</v>
+        <v>93.01517932137642</v>
       </c>
     </row>
     <row r="4703" spans="1:2">
@@ -37999,7 +37999,7 @@
         <v>4707</v>
       </c>
       <c r="B4707">
-        <v>48.18029261384785</v>
+        <v>48.18029261384784</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>139.7869725234179</v>
+        <v>139.7869725234178</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>183.9771029458915</v>
+        <v>183.9771029458914</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38367,7 +38367,7 @@
         <v>4753</v>
       </c>
       <c r="B4753">
-        <v>99.5987271338649</v>
+        <v>99.59872713386488</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>100.0213355716146</v>
+        <v>100.0213355716145</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38695,7 +38695,7 @@
         <v>4794</v>
       </c>
       <c r="B4794">
-        <v>205.4275584075927</v>
+        <v>205.4275584075926</v>
       </c>
     </row>
     <row r="4795" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>91.2898701167771</v>
+        <v>91.28987011677708</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>234.9767389516615</v>
+        <v>234.9767389516614</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>125.4338184049785</v>
+        <v>125.4338184049784</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>210.5202538464109</v>
+        <v>210.5202538464108</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>126.3543545374138</v>
+        <v>126.3543545374137</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>177.5532788494735</v>
+        <v>177.5532788494734</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>181.7134222432713</v>
+        <v>181.7134222432712</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>203.1946501640319</v>
+        <v>203.1946501640318</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39863,7 +39863,7 @@
         <v>4940</v>
       </c>
       <c r="B4940">
-        <v>165.5218334993093</v>
+        <v>165.5218334993092</v>
       </c>
     </row>
     <row r="4941" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>72.13181631948495</v>
+        <v>72.13181631948494</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>106.5864199086674</v>
+        <v>106.5864199086673</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>95.32282067979588</v>
+        <v>95.32282067979584</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>75.54345628054168</v>
+        <v>75.54345628054166</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40303,7 +40303,7 @@
         <v>4995</v>
       </c>
       <c r="B4995">
-        <v>38.7284585459808</v>
+        <v>38.72845854598079</v>
       </c>
     </row>
     <row r="4996" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>130.2187892532023</v>
+        <v>130.2187892532022</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>70.82501255809402</v>
+        <v>70.825012558094</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>59.62442360253472</v>
+        <v>59.62442360253471</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40503,7 +40503,7 @@
         <v>5020</v>
       </c>
       <c r="B5020">
-        <v>54.25858595568415</v>
+        <v>54.25858595568414</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>101.5725605792491</v>
+        <v>101.572560579249</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40647,7 +40647,7 @@
         <v>5038</v>
       </c>
       <c r="B5038">
-        <v>85.40764129980523</v>
+        <v>85.40764129980522</v>
       </c>
     </row>
     <row r="5039" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>54.3476795514372</v>
+        <v>54.34767955143719</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>99.92725976820428</v>
+        <v>99.92725976820424</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>44.77129029213908</v>
+        <v>44.77129029213907</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>100.1737325117185</v>
+        <v>100.1737325117184</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>85.05126691679304</v>
+        <v>85.05126691679303</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>72.93981317307428</v>
+        <v>72.93981317307427</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41663,7 +41663,7 @@
         <v>5165</v>
       </c>
       <c r="B5165">
-        <v>60.61295221593944</v>
+        <v>60.61295221593943</v>
       </c>
     </row>
     <row r="5166" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>145.8227705646483</v>
+        <v>145.8227705646482</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41711,7 +41711,7 @@
         <v>5171</v>
       </c>
       <c r="B5171">
-        <v>166.5226710963378</v>
+        <v>166.5226710963377</v>
       </c>
     </row>
     <row r="5172" spans="1:2">
@@ -41791,7 +41791,7 @@
         <v>5181</v>
       </c>
       <c r="B5181">
-        <v>176.2013421481287</v>
+        <v>176.2013421481286</v>
       </c>
     </row>
     <row r="5182" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>90.59968782072964</v>
+        <v>90.5996878207296</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41855,7 +41855,7 @@
         <v>5189</v>
       </c>
       <c r="B5189">
-        <v>80.98725082367616</v>
+        <v>80.98725082367615</v>
       </c>
     </row>
     <row r="5190" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>87.49987544480858</v>
+        <v>87.49987544480857</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -41991,7 +41991,7 @@
         <v>5206</v>
       </c>
       <c r="B5206">
-        <v>64.70041399214922</v>
+        <v>64.70041399214921</v>
       </c>
     </row>
     <row r="5207" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>62.11054522349891</v>
+        <v>62.1105452234989</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>74.38904945925464</v>
+        <v>74.38904945925462</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>86.27395929008817</v>
+        <v>86.27395929008816</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>10.39402815005941</v>
+        <v>10.3940281500594</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>45.71116911312601</v>
+        <v>45.711169113126</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>38.919540863188</v>
+        <v>38.91954086318799</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>36.18577421455497</v>
+        <v>36.18577421455496</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42607,7 +42607,7 @@
         <v>5283</v>
       </c>
       <c r="B5283">
-        <v>30.82228113601369</v>
+        <v>30.82228113601368</v>
       </c>
     </row>
     <row r="5284" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>92.73441726633888</v>
+        <v>92.73441726633884</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>97.58005381956556</v>
+        <v>97.58005381956552</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>169.9562913852941</v>
+        <v>169.956291385294</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42735,7 +42735,7 @@
         <v>5299</v>
       </c>
       <c r="B5299">
-        <v>175.9185285958205</v>
+        <v>175.9185285958204</v>
       </c>
     </row>
     <row r="5300" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>153.5038694169235</v>
+        <v>153.5038694169234</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>92.5773311896164</v>
+        <v>92.57733118961636</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>60.01919029161155</v>
+        <v>60.01919029161154</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>82.65892802820048</v>
+        <v>82.65892802820046</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>134.7405823087082</v>
+        <v>134.7405823087081</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43087,7 +43087,7 @@
         <v>5343</v>
       </c>
       <c r="B5343">
-        <v>144.2563058630034</v>
+        <v>144.2563058630033</v>
       </c>
     </row>
     <row r="5344" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>141.9726963297542</v>
+        <v>141.9726963297541</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43119,7 +43119,7 @@
         <v>5347</v>
       </c>
       <c r="B5347">
-        <v>149.7379065701252</v>
+        <v>149.7379065701251</v>
       </c>
     </row>
     <row r="5348" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>93.46094037118034</v>
+        <v>93.46094037118031</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>171.9737924154388</v>
+        <v>171.9737924154387</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43751,7 +43751,7 @@
         <v>5426</v>
       </c>
       <c r="B5426">
-        <v>60.2129102481667</v>
+        <v>60.21291024816669</v>
       </c>
     </row>
     <row r="5427" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>63.42789954228166</v>
+        <v>63.42789954228165</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44071,7 +44071,7 @@
         <v>5466</v>
       </c>
       <c r="B5466">
-        <v>77.1741035396534</v>
+        <v>77.17410353965339</v>
       </c>
     </row>
     <row r="5467" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>43.55621776584914</v>
+        <v>43.55621776584913</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44175,7 +44175,7 @@
         <v>5479</v>
       </c>
       <c r="B5479">
-        <v>55.84878941146061</v>
+        <v>55.8487894114606</v>
       </c>
     </row>
     <row r="5480" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>94.30674338875698</v>
+        <v>94.30674338875696</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44359,7 +44359,7 @@
         <v>5502</v>
       </c>
       <c r="B5502">
-        <v>63.96802946653452</v>
+        <v>63.96802946653451</v>
       </c>
     </row>
     <row r="5503" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>95.92742623255424</v>
+        <v>95.9274262325542</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>68.54726444561804</v>
+        <v>68.54726444561803</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44511,7 +44511,7 @@
         <v>5521</v>
       </c>
       <c r="B5521">
-        <v>61.27793040266203</v>
+        <v>61.27793040266202</v>
       </c>
     </row>
     <row r="5522" spans="1:2">
@@ -44519,7 +44519,7 @@
         <v>5522</v>
       </c>
       <c r="B5522">
-        <v>50.34579451851653</v>
+        <v>50.34579451851652</v>
       </c>
     </row>
     <row r="5523" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>65.05737451723874</v>
+        <v>65.05737451723873</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>90.08769271618826</v>
+        <v>90.08769271618824</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44679,7 +44679,7 @@
         <v>5542</v>
       </c>
       <c r="B5542">
-        <v>95.7691678716771</v>
+        <v>95.76916787167708</v>
       </c>
     </row>
     <row r="5543" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>70.67935625187933</v>
+        <v>70.67935625187931</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>59.57841144946489</v>
+        <v>59.57841144946488</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>132.8913040547551</v>
+        <v>132.891304054755</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44895,7 +44895,7 @@
         <v>5569</v>
       </c>
       <c r="B5569">
-        <v>91.78252253276682</v>
+        <v>91.78252253276681</v>
       </c>
     </row>
     <row r="5570" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>79.5479789528103</v>
+        <v>79.54797895281028</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>129.8571395914942</v>
+        <v>129.8571395914941</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>47.45904478770228</v>
+        <v>47.45904478770227</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>69.75266562763215</v>
+        <v>69.75266562763214</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>85.28308610837416</v>
+        <v>85.28308610837415</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45215,7 +45215,7 @@
         <v>5609</v>
       </c>
       <c r="B5609">
-        <v>85.74877598880704</v>
+        <v>85.74877598880703</v>
       </c>
     </row>
     <row r="5610" spans="1:2">
@@ -45519,7 +45519,7 @@
         <v>5647</v>
       </c>
       <c r="B5647">
-        <v>47.78025064607511</v>
+        <v>47.7802506460751</v>
       </c>
     </row>
     <row r="5648" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>14.81503407536967</v>
+        <v>14.81503407536966</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -45879,7 +45879,7 @@
         <v>5692</v>
       </c>
       <c r="B5692">
-        <v>43.03132753560667</v>
+        <v>43.03132753560666</v>
       </c>
     </row>
     <row r="5693" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>74.33072832256103</v>
+        <v>74.33072832256101</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>96.20760214551449</v>
+        <v>96.20760214551446</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>137.8998881054775</v>
+        <v>137.8998881054774</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46247,7 +46247,7 @@
         <v>5738</v>
       </c>
       <c r="B5738">
-        <v>64.69044957683474</v>
+        <v>64.69044957683472</v>
       </c>
     </row>
     <row r="5739" spans="1:2">
@@ -46287,7 +46287,7 @@
         <v>5743</v>
       </c>
       <c r="B5743">
-        <v>82.57217900075672</v>
+        <v>82.57217900075671</v>
       </c>
     </row>
     <row r="5744" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>114.2470037882363</v>
+        <v>114.2470037882362</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46455,7 +46455,7 @@
         <v>5764</v>
       </c>
       <c r="B5764">
-        <v>67.99687703501203</v>
+        <v>67.99687703501202</v>
       </c>
     </row>
     <row r="5765" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>23.15017956462539</v>
+        <v>23.15017956462538</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>16.66642244080112</v>
+        <v>16.66642244080111</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>47.26532483114713</v>
+        <v>47.26532483114712</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>53.26771277397014</v>
+        <v>53.26771277397013</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46983,7 +46983,7 @@
         <v>5830</v>
       </c>
       <c r="B5830">
-        <v>129.0034236558737</v>
+        <v>129.0034236558736</v>
       </c>
     </row>
     <row r="5831" spans="1:2">
@@ -47015,7 +47015,7 @@
         <v>5834</v>
       </c>
       <c r="B5834">
-        <v>64.25201530299736</v>
+        <v>64.25201530299735</v>
       </c>
     </row>
     <row r="5835" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>60.42655903535082</v>
+        <v>60.42655903535081</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>86.56468576044023</v>
+        <v>86.56468576044021</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47223,7 +47223,7 @@
         <v>5860</v>
       </c>
       <c r="B5860">
-        <v>53.71640453416066</v>
+        <v>53.71640453416065</v>
       </c>
     </row>
     <row r="5861" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>58.52628642067066</v>
+        <v>58.52628642067065</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47383,7 +47383,7 @@
         <v>5880</v>
       </c>
       <c r="B5880">
-        <v>91.38453206226473</v>
+        <v>91.3845320622647</v>
       </c>
     </row>
     <row r="5881" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>83.14571902341697</v>
+        <v>83.14571902341696</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>75.29317361352489</v>
+        <v>75.29317361352487</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>9.848388490279714</v>
+        <v>9.848388490279712</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>7.816321829513544</v>
+        <v>7.816321829513543</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47647,7 +47647,7 @@
         <v>5913</v>
       </c>
       <c r="B5913">
-        <v>51.05356107688368</v>
+        <v>51.05356107688367</v>
       </c>
     </row>
     <row r="5914" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>7.585000858698144</v>
+        <v>7.585000858698143</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>111.6791153474856</v>
+        <v>111.6791153474855</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>18.29674732177032</v>
+        <v>18.29674732177031</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>43.74993772240429</v>
+        <v>43.74993772240428</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>54.2817385677384</v>
+        <v>54.28173856773839</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48287,7 +48287,7 @@
         <v>5993</v>
       </c>
       <c r="B5993">
-        <v>140.7385741859513</v>
+        <v>140.7385741859512</v>
       </c>
     </row>
     <row r="5994" spans="1:2">
@@ -48327,7 +48327,7 @@
         <v>5998</v>
       </c>
       <c r="B5998">
-        <v>116.1068325995812</v>
+        <v>116.1068325995811</v>
       </c>
     </row>
     <row r="5999" spans="1:2">
@@ -48359,7 +48359,7 @@
         <v>6002</v>
       </c>
       <c r="B6002">
-        <v>64.33612669109317</v>
+        <v>64.33612669109316</v>
       </c>
     </row>
     <row r="6003" spans="1:2">
@@ -48367,7 +48367,7 @@
         <v>6003</v>
       </c>
       <c r="B6003">
-        <v>59.33399020322133</v>
+        <v>59.33399020322132</v>
       </c>
     </row>
     <row r="6004" spans="1:2">
@@ -48415,7 +48415,7 @@
         <v>6009</v>
       </c>
       <c r="B6009">
-        <v>98.22041403904061</v>
+        <v>98.22041403904058</v>
       </c>
     </row>
     <row r="6010" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>118.1296089084218</v>
+        <v>118.1296089084217</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48551,7 +48551,7 @@
         <v>6026</v>
       </c>
       <c r="B6026">
-        <v>56.05774906202615</v>
+        <v>56.05774906202614</v>
       </c>
     </row>
     <row r="6027" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>52.03476291432186</v>
+        <v>52.03476291432185</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48727,7 +48727,7 @@
         <v>6048</v>
       </c>
       <c r="B6048">
-        <v>58.19247850763539</v>
+        <v>58.19247850763538</v>
       </c>
     </row>
     <row r="6049" spans="1:2">
@@ -48791,7 +48791,7 @@
         <v>6056</v>
       </c>
       <c r="B6056">
-        <v>56.90062136921618</v>
+        <v>56.90062136921617</v>
       </c>
     </row>
     <row r="6057" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>61.08626194337751</v>
+        <v>61.0862619433775</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>71.82848779447046</v>
+        <v>71.82848779447045</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>95.52474662543354</v>
+        <v>95.52474662543352</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49367,7 +49367,7 @@
         <v>6128</v>
       </c>
       <c r="B6128">
-        <v>68.42270925418697</v>
+        <v>68.42270925418696</v>
       </c>
     </row>
     <row r="6129" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>78.77368526866702</v>
+        <v>78.77368526866701</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>105.7910251097405</v>
+        <v>105.7910251097404</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49463,7 +49463,7 @@
         <v>6140</v>
       </c>
       <c r="B6140">
-        <v>101.3633078576449</v>
+        <v>101.3633078576448</v>
       </c>
     </row>
     <row r="6141" spans="1:2">
@@ -49503,7 +49503,7 @@
         <v>6145</v>
       </c>
       <c r="B6145">
-        <v>42.29513308648937</v>
+        <v>42.29513308648936</v>
       </c>
     </row>
     <row r="6146" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>56.94165131462877</v>
+        <v>56.94165131462876</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49855,7 +49855,7 @@
         <v>6189</v>
       </c>
       <c r="B6189">
-        <v>84.32269231468094</v>
+        <v>84.32269231468092</v>
       </c>
     </row>
     <row r="6190" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>75.66068469600621</v>
+        <v>75.6606846960062</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>104.7113514033121</v>
+        <v>104.711351403312</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>54.25389681906557</v>
+        <v>54.25389681906556</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>92.77544721175146</v>
+        <v>92.77544721175144</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>50.69484212556219</v>
+        <v>50.69484212556218</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>58.17430810323838</v>
+        <v>58.17430810323837</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>85.56853730003031</v>
+        <v>85.5685373000303</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>126.6849386690238</v>
+        <v>126.6849386690237</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>35.11049657370649</v>
+        <v>35.11049657370648</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>160.2418656667865</v>
+        <v>160.2418656667864</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>49.5430729436231</v>
+        <v>49.54307294362309</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>86.93424834019218</v>
+        <v>86.93424834019217</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>80.01220347804987</v>
+        <v>80.01220347804986</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>7.567387289274597</v>
+        <v>7.567387289274596</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>88.9690405616179</v>
+        <v>88.96904056161789</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>30.72673997741009</v>
+        <v>30.72673997741008</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51327,7 +51327,7 @@
         <v>6373</v>
       </c>
       <c r="B6373">
-        <v>51.30325760182314</v>
+        <v>51.30325760182313</v>
       </c>
     </row>
     <row r="6374" spans="1:2">
@@ -51359,7 +51359,7 @@
         <v>6377</v>
       </c>
       <c r="B6377">
-        <v>34.7412270649932</v>
+        <v>34.74122706499319</v>
       </c>
     </row>
     <row r="6378" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>49.05628194840661</v>
+        <v>49.0562819484066</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>20.16706807629929</v>
+        <v>20.16706807629928</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>27.44876971708681</v>
+        <v>27.4487697170868</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>6.267587925707665</v>
+        <v>6.267587925707664</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51671,7 +51671,7 @@
         <v>6416</v>
       </c>
       <c r="B6416">
-        <v>7.617942043443679</v>
+        <v>7.617942043443678</v>
       </c>
     </row>
     <row r="6417" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>78.7783744052856</v>
+        <v>78.77837440528559</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>7.012222820738411</v>
+        <v>7.01222282073841</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52023,7 +52023,7 @@
         <v>6460</v>
       </c>
       <c r="B6460">
-        <v>7.321207616799067</v>
+        <v>7.321207616799066</v>
       </c>
     </row>
     <row r="6461" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>82.77879408301297</v>
+        <v>82.77879408301295</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52127,7 +52127,7 @@
         <v>6473</v>
       </c>
       <c r="B6473">
-        <v>97.29313727271609</v>
+        <v>97.29313727271608</v>
       </c>
     </row>
     <row r="6474" spans="1:2">
@@ -52143,7 +52143,7 @@
         <v>6475</v>
       </c>
       <c r="B6475">
-        <v>83.48157843372287</v>
+        <v>83.48157843372286</v>
       </c>
     </row>
     <row r="6476" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>78.35312832818799</v>
+        <v>78.35312832818798</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52335,7 +52335,7 @@
         <v>6499</v>
       </c>
       <c r="B6499">
-        <v>69.96396984650698</v>
+        <v>69.96396984650697</v>
       </c>
     </row>
     <row r="6500" spans="1:2">
@@ -52351,7 +52351,7 @@
         <v>6501</v>
       </c>
       <c r="B6501">
-        <v>85.72152038221154</v>
+        <v>85.72152038221152</v>
       </c>
     </row>
     <row r="6502" spans="1:2">
@@ -52455,7 +52455,7 @@
         <v>6514</v>
       </c>
       <c r="B6514">
-        <v>65.68659803724465</v>
+        <v>65.68659803724464</v>
       </c>
     </row>
     <row r="6515" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>89.97779107669025</v>
+        <v>89.97779107669024</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>18.82260468644037</v>
+        <v>18.82260468644036</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>29.66171982291476</v>
+        <v>29.66171982291475</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>87.4436058053856</v>
+        <v>87.44360580538559</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>72.69216814540545</v>
+        <v>72.69216814540543</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>55.1937756400525</v>
+        <v>55.19377564005249</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>5.822706089019743</v>
+        <v>5.822706089019742</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>7.24468676860459</v>
+        <v>7.244686768604589</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>7.287328604729816</v>
+        <v>7.287328604729815</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>44.29211914392778</v>
+        <v>44.29211914392777</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>7.490221684795065</v>
+        <v>7.490221684795064</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>7.702610266512942</v>
+        <v>7.702610266512941</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>74.59507839943356</v>
+        <v>74.59507839943355</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>75.34416797425196</v>
+        <v>75.34416797425195</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>75.85880071814128</v>
+        <v>75.85880071814127</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>55.68554884292624</v>
+        <v>55.68554884292623</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53503,7 +53503,7 @@
         <v>6645</v>
       </c>
       <c r="B6645">
-        <v>90.32947632308388</v>
+        <v>90.32947632308384</v>
       </c>
     </row>
     <row r="6646" spans="1:2">
@@ -53519,7 +53519,7 @@
         <v>6647</v>
       </c>
       <c r="B6647">
-        <v>52.50572807345064</v>
+        <v>52.50572807345063</v>
       </c>
     </row>
     <row r="6648" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>99.78893023795612</v>
+        <v>99.78893023795609</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -53711,7 +53711,7 @@
         <v>6671</v>
       </c>
       <c r="B6671">
-        <v>74.89108014848152</v>
+        <v>74.89108014848151</v>
       </c>
     </row>
     <row r="6672" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>61.71577853442208</v>
+        <v>61.71577853442207</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>38.67746418525373</v>
+        <v>38.67746418525372</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53823,7 +53823,7 @@
         <v>6685</v>
       </c>
       <c r="B6685">
-        <v>62.6307463171228</v>
+        <v>62.63074631712279</v>
       </c>
     </row>
     <row r="6686" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>32.15780585919344</v>
+        <v>32.15780585919343</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -53871,7 +53871,7 @@
         <v>6691</v>
       </c>
       <c r="B6691">
-        <v>38.95265789055673</v>
+        <v>38.95265789055672</v>
       </c>
     </row>
     <row r="6692" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>7.796832605442565</v>
+        <v>7.796832605442564</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>3.369173967554692</v>
+        <v>3.369173967554691</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>47.14838948672125</v>
+        <v>47.14838948672124</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>50.870684748759</v>
+        <v>50.87068474875899</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>50.51636186301743</v>
+        <v>50.51636186301742</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>55.88425100713863</v>
+        <v>55.88425100713862</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>63.8938824937532</v>
+        <v>63.89388249375319</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>82.84707963502106</v>
+        <v>82.84707963502105</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>7.420294934970467</v>
+        <v>7.420294934970466</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>40.41478930243818</v>
+        <v>40.41478930243817</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>53.56342145197944</v>
+        <v>53.56342145197943</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>99.1544314392543</v>
+        <v>99.15443143925428</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54983,7 +54983,7 @@
         <v>6830</v>
       </c>
       <c r="B6830">
-        <v>94.23259641597566</v>
+        <v>94.23259641597564</v>
       </c>
     </row>
     <row r="6831" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>132.8177432240511</v>
+        <v>132.817743224051</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>88.31725057163507</v>
+        <v>88.31725057163506</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>64.61630260405342</v>
+        <v>64.6163026040534</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>82.43707325193384</v>
+        <v>82.43707325193382</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>71.59461710561871</v>
+        <v>71.5946171056187</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>78.53131551969409</v>
+        <v>78.53131551969408</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>58.82902880360783</v>
+        <v>58.82902880360782</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>9.253981809666774</v>
+        <v>9.253981809666772</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55583,7 +55583,7 @@
         <v>6905</v>
       </c>
       <c r="B6905">
-        <v>80.62032588327216</v>
+        <v>80.62032588327214</v>
       </c>
     </row>
     <row r="6906" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>5.156848689181167</v>
+        <v>5.156848689181166</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>59.82283269570845</v>
+        <v>59.82283269570844</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>83.01852619263795</v>
+        <v>83.01852619263794</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>7.516099857508862</v>
+        <v>7.516099857508861</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>56.62542766391317</v>
+        <v>56.62542766391316</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>53.49425668685536</v>
+        <v>53.49425668685535</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>77.62455372607589</v>
+        <v>77.62455372607587</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>62.76321442659773</v>
+        <v>62.76321442659772</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>53.79230993317395</v>
+        <v>53.79230993317394</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56567,7 +56567,7 @@
         <v>7028</v>
       </c>
       <c r="B7028">
-        <v>51.99666367929589</v>
+        <v>51.99666367929588</v>
       </c>
     </row>
     <row r="7029" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>12.36484296374536</v>
+        <v>12.36484296374535</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>6.5336671217083</v>
+        <v>6.533667121708299</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>69.67324337615493</v>
+        <v>69.67324337615491</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56791,7 +56791,7 @@
         <v>7056</v>
       </c>
       <c r="B7056">
-        <v>31.37384083077434</v>
+        <v>31.37384083077433</v>
       </c>
     </row>
     <row r="7057" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>11.92517779154561</v>
+        <v>11.9251777915456</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>47.37229576025852</v>
+        <v>47.37229576025851</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>89.20877267124288</v>
+        <v>89.20877267124287</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57079,7 +57079,7 @@
         <v>7092</v>
       </c>
       <c r="B7092">
-        <v>93.55560231666796</v>
+        <v>93.55560231666794</v>
       </c>
     </row>
     <row r="7093" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>88.65105848467034</v>
+        <v>88.65105848467033</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57199,7 +57199,7 @@
         <v>7107</v>
       </c>
       <c r="B7107">
-        <v>31.1648811802088</v>
+        <v>31.16488118020879</v>
       </c>
     </row>
     <row r="7108" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>29.82085739690787</v>
+        <v>29.82085739690786</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>119.9999882771585</v>
+        <v>119.9999882771584</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>128.8152720490531</v>
+        <v>128.815272049053</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>70.93169041616675</v>
+        <v>70.93169041616673</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>57.85368838694287</v>
+        <v>57.85368838694286</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57415,7 +57415,7 @@
         <v>7134</v>
       </c>
       <c r="B7134">
-        <v>62.48772765025606</v>
+        <v>62.48772765025605</v>
       </c>
     </row>
     <row r="7135" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>93.7994374208342</v>
+        <v>93.79943742083418</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>87.72378171834585</v>
+        <v>87.72378171834583</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>89.52470325091981</v>
+        <v>89.5247032509198</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>75.88459096954348</v>
+        <v>75.88459096954347</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>70.71511091859601</v>
+        <v>70.715110918596</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>32.77706496388486</v>
+        <v>32.77706496388485</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>46.97987363949098</v>
+        <v>46.97987363949097</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>53.82044475288544</v>
+        <v>53.82044475288543</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>46.19561554003322</v>
+        <v>46.19561554003321</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>29.52807942928519</v>
+        <v>29.52807942928518</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>1.735976990406613</v>
+        <v>1.735976990406612</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>54.53905493968306</v>
+        <v>54.53905493968305</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>47.98921029664065</v>
+        <v>47.98921029664064</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>58.27365918534458</v>
+        <v>58.27365918534457</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>68.87110794333883</v>
+        <v>68.87110794333881</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>4.643564072069686</v>
+        <v>4.643564072069685</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>40.90890707362121</v>
+        <v>40.9089070736212</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>43.00055507654723</v>
+        <v>43.00055507654722</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>48.18498175046643</v>
+        <v>48.18498175046642</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>50.47826262799146</v>
+        <v>50.47826262799145</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>36.63651747201612</v>
+        <v>36.63651747201611</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>1.945276603377</v>
+        <v>1.945276603376999</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -59247,7 +59247,7 @@
         <v>7363</v>
       </c>
       <c r="B7363">
-        <v>39.51271664543856</v>
+        <v>39.51271664543855</v>
       </c>
     </row>
     <row r="7364" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>35.55391305520111</v>
+        <v>35.5539130552011</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>33.77819563195202</v>
+        <v>33.77819563195201</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>5.02610969883434</v>
+        <v>5.026109698834339</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>5.03762739065373</v>
+        <v>5.037627390653729</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>34.80247891207342</v>
+        <v>34.80247891207341</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59455,7 +59455,7 @@
         <v>7389</v>
       </c>
       <c r="B7389">
-        <v>26.53948751253612</v>
+        <v>26.53948751253611</v>
       </c>
     </row>
     <row r="7390" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>1.847042121928103</v>
+        <v>1.847042121928102</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>35.71949819204477</v>
+        <v>35.71949819204476</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>30.77011449113197</v>
+        <v>30.77011449113196</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59671,7 +59671,7 @@
         <v>7416</v>
       </c>
       <c r="B7416">
-        <v>2.870284999862257</v>
+        <v>2.870284999862256</v>
       </c>
     </row>
     <row r="7417" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>39.04145841527112</v>
+        <v>39.04145841527111</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>7.601647293694109</v>
+        <v>7.601647293694108</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>1.853047147510274</v>
+        <v>1.853047147510273</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>32.81516419891084</v>
+        <v>32.81516419891083</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>1.821415990307555</v>
+        <v>1.821415990307554</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>24.03179586312645</v>
+        <v>24.03179586312644</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>6.112377503632616</v>
+        <v>6.112377503632615</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>3.94995284486988</v>
+        <v>3.949952844869879</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>27.5171431904065</v>
+        <v>27.51714319040649</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>2.498635754315032</v>
+        <v>2.498635754315031</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60551,7 +60551,7 @@
         <v>7526</v>
       </c>
       <c r="B7526">
-        <v>49.80830223361162</v>
+        <v>49.80830223361161</v>
       </c>
     </row>
     <row r="7527" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>1.871282027535783</v>
+        <v>1.871282027535782</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>38.38439314659238</v>
+        <v>38.38439314659237</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60743,7 +60743,7 @@
         <v>7550</v>
       </c>
       <c r="B7550">
-        <v>53.00306962605895</v>
+        <v>53.00306962605894</v>
       </c>
     </row>
     <row r="7551" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>50.35077672617377</v>
+        <v>50.35077672617376</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>1.588483128779518</v>
+        <v>1.588483128779517</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60967,7 +60967,7 @@
         <v>7578</v>
       </c>
       <c r="B7578">
-        <v>6.910116870868798</v>
+        <v>6.910116870868797</v>
       </c>
     </row>
     <row r="7579" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>9.41701722847408</v>
+        <v>9.417017228474078</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>3.913113815310149</v>
+        <v>3.913113815310148</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>12.92915124868778</v>
+        <v>12.92915124868777</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>17.1173122337816</v>
+        <v>17.11731223378159</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>5.213294171227341</v>
+        <v>5.21329417122734</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61367,7 +61367,7 @@
         <v>7628</v>
       </c>
       <c r="B7628">
-        <v>6.334964957495908</v>
+        <v>6.334964957495907</v>
       </c>
     </row>
     <row r="7629" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>7.42809062459886</v>
+        <v>7.428090624598859</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>1.831591416769877</v>
+        <v>1.831591416769876</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>7.989907805712659</v>
+        <v>7.989907805712658</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>2.705678720287726</v>
+        <v>2.705678720287725</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>5.190346708900158</v>
+        <v>5.190346708900157</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>1.391061685006076</v>
+        <v>1.391061685006075</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>1.024678926023595</v>
+        <v>1.024678926023594</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>3.568257124117344</v>
+        <v>3.568257124117343</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>39.37028412064915</v>
+        <v>39.37028412064914</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>5.706708571917582</v>
+        <v>5.706708571917581</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>0.9436623680960524</v>
+        <v>0.9436623680960522</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>3.422512896591057</v>
+        <v>3.422512896591056</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>1.257271825146785</v>
+        <v>1.257271825146784</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62247,7 +62247,7 @@
         <v>7738</v>
       </c>
       <c r="B7738">
-        <v>1.18063667924723</v>
+        <v>1.180636679247229</v>
       </c>
     </row>
     <row r="7739" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>0.9221743995414026</v>
+        <v>0.9221743995414023</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>0.8784980226497022</v>
+        <v>0.8784980226497021</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>6.771758033516777</v>
+        <v>6.771758033516776</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>0.9595761254953634</v>
+        <v>0.9595761254953632</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>0.7975518017714387</v>
+        <v>0.7975518017714386</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>2.660929703394525</v>
+        <v>2.660929703394524</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>1.109464377508322</v>
+        <v>1.109464377508321</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>12.01312841024788</v>
+        <v>12.01312841024787</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>0.994955661282561</v>
+        <v>0.9949556612825609</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>1.458257012750349</v>
+        <v>1.458257012750348</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63431,7 +63431,7 @@
         <v>7886</v>
       </c>
       <c r="B7886">
-        <v>0.6814839476199995</v>
+        <v>0.6814839476199994</v>
       </c>
     </row>
     <row r="7887" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>0.5480193966136229</v>
+        <v>0.5480193966136228</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63711,7 +63711,7 @@
         <v>7921</v>
       </c>
       <c r="B7921">
-        <v>2.312875607169925</v>
+        <v>2.312875607169924</v>
       </c>
     </row>
     <row r="7922" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>1.270890836313378</v>
+        <v>1.270890836313377</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>1.3746584989722</v>
+        <v>1.374658498972199</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>32.48663156457147</v>
+        <v>32.48663156457146</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>37.49257797594591</v>
+        <v>37.4925779759459</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>6.111234526581837</v>
+        <v>6.111234526581836</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>5.517326066734621</v>
+        <v>5.51732606673462</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>4.244870231074792</v>
+        <v>4.244870231074791</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>1.8931275427576</v>
+        <v>1.893127542757599</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>24.78967756910469</v>
+        <v>24.78967756910468</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>1.627558290364235</v>
+        <v>1.627558290364234</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>1.259774651816953</v>
+        <v>1.259774651816952</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>1.508322338284867</v>
+        <v>1.508322338284866</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>1.692511624662749</v>
+        <v>1.692511624662748</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>39.084832928993</v>
+        <v>39.08483292899299</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>62.74768166154868</v>
+        <v>62.74768166154867</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>64.35664166379946</v>
+        <v>64.35664166379945</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>57.49965857223997</v>
+        <v>57.49965857223996</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>3.43227216217848</v>
+        <v>3.432272162178479</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>3.533704048659171</v>
+        <v>3.53370404865917</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>6.235994867739971</v>
+        <v>6.23599486773997</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>56.25850272350917</v>
+        <v>56.25850272350916</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>50.03220850714889</v>
+        <v>50.03220850714888</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>96.95610557825556</v>
+        <v>96.95610557825552</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65559,7 +65559,7 @@
         <v>8152</v>
       </c>
       <c r="B8152">
-        <v>90.63808012679426</v>
+        <v>90.63808012679424</v>
       </c>
     </row>
     <row r="8153" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>48.34324011134356</v>
+        <v>48.34324011134355</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>73.50749177496131</v>
+        <v>73.5074917749613</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65807,7 +65807,7 @@
         <v>8183</v>
       </c>
       <c r="B8183">
-        <v>57.73147776382109</v>
+        <v>57.73147776382108</v>
       </c>
     </row>
     <row r="8184" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>7.604050476211131</v>
+        <v>7.60405047621113</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65887,7 +65887,7 @@
         <v>8193</v>
       </c>
       <c r="B8193">
-        <v>4.62571604581521</v>
+        <v>4.625716045815209</v>
       </c>
     </row>
     <row r="8194" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>3.496454719645314</v>
+        <v>3.496454719645313</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>2.737342115304698</v>
+        <v>2.737342115304697</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>12.29781761720351</v>
+        <v>12.2978176172035</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>7.513550139472508</v>
+        <v>7.513550139472507</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>2.516275700132058</v>
+        <v>2.516275700132057</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>34.8329583000942</v>
+        <v>34.83295830009419</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>1.043740266378129</v>
+        <v>1.043740266378128</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>0.8029882695386066</v>
+        <v>0.8029882695386065</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>5.23794144557876</v>
+        <v>5.237941445578759</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>1.76240906738348</v>
+        <v>1.762409067383479</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>0.632130784709429</v>
+        <v>0.6321307847094289</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>0.8711565931312356</v>
+        <v>0.8711565931312355</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>5.835278836578314</v>
+        <v>5.835278836578313</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>4.805427206722347</v>
+        <v>4.805427206722346</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>2.385885464321239</v>
+        <v>2.385885464321238</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>32.38698741142661</v>
+        <v>32.3869874114266</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67183,7 +67183,7 @@
         <v>8355</v>
       </c>
       <c r="B8355">
-        <v>0.8837938163183128</v>
+        <v>0.8837938163183127</v>
       </c>
     </row>
     <row r="8356" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>1.931637077237701</v>
+        <v>1.9316370772377</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>1.97537499904752</v>
+        <v>1.975374999047519</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>24.03194239864578</v>
+        <v>24.03194239864577</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>1.35099887402107</v>
+        <v>1.350998874021069</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>2.178795606982359</v>
+        <v>2.178795606982358</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>4.156421391606798</v>
+        <v>4.156421391606797</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67783,7 +67783,7 @@
         <v>8430</v>
       </c>
       <c r="B8430">
-        <v>1.22670158510402</v>
+        <v>1.226701585104019</v>
       </c>
     </row>
     <row r="8431" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>1.41561810733551</v>
+        <v>1.415618107335509</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>3.782990274144512</v>
+        <v>3.782990274144511</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>6.845406785532373</v>
+        <v>6.845406785532372</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>1.393083875172839</v>
+        <v>1.393083875172838</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>1.282543340810553</v>
+        <v>1.282543340810552</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>2.274618113783073</v>
+        <v>2.274618113783072</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>2.449912694137584</v>
+        <v>2.449912694137583</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>1.053429194916273</v>
+        <v>1.053429194916272</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>0.8168798367711544</v>
+        <v>0.8168798367711543</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>0.7516803228001649</v>
+        <v>0.7516803228001648</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>0.4287980980861875</v>
+        <v>0.4287980980861874</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>0.3344262929268477</v>
+        <v>0.3344262929268476</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>1.66802847009298</v>
+        <v>1.668028470092979</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>0.6666809294572149</v>
+        <v>0.6666809294572148</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>0.5862827514212481</v>
+        <v>0.586282751421248</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -68967,7 +68967,7 @@
         <v>8578</v>
       </c>
       <c r="B8578">
-        <v>0.6357033206707108</v>
+        <v>0.6357033206707107</v>
       </c>
     </row>
     <row r="8579" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>2.473182534607294</v>
+        <v>2.473182534607293</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>0.6563296603716962</v>
+        <v>0.656329660371696</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>0.5948609407228657</v>
+        <v>0.5948609407228655</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>0.6238925578126585</v>
+        <v>0.6238925578126584</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>2.273448760338814</v>
+        <v>2.273448760338813</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>0.6798749876177487</v>
+        <v>0.6798749876177486</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>0.8328082477223985</v>
+        <v>0.8328082477223984</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>1.822122291510729</v>
+        <v>1.822122291510728</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>0.8805612427618781</v>
+        <v>0.880561242761878</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>1.292862372081819</v>
+        <v>1.292862372081818</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>3.266540489815489</v>
+        <v>3.266540489815488</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>0.9522493495288298</v>
+        <v>0.9522493495288296</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>0.8391151364743906</v>
+        <v>0.8391151364743905</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>1.394344080639083</v>
+        <v>1.394344080639082</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>0.5808286993917604</v>
+        <v>0.5808286993917603</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>0.7088567826309691</v>
+        <v>0.708856782630969</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>0.8128178721753081</v>
+        <v>0.812817872175308</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>0.7021689015287172</v>
+        <v>0.7021689015287171</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>0.5867223579792401</v>
+        <v>0.58672235797924</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>0.4509718528713049</v>
+        <v>0.4509718528713048</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
